--- a/app/brush_juejin_value/brush_juejin_value.xlsx
+++ b/app/brush_juejin_value/brush_juejin_value.xlsx
@@ -1,48 +1,567 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="19890" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+  <si>
+    <t>IsExecute</t>
+  </si>
+  <si>
+    <t>ArticleName</t>
+  </si>
+  <si>
+    <t>ArticleUrl</t>
+  </si>
+  <si>
+    <t>ArticleViews</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>开发流水线作业工具Jenkins</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5e0d58ade51d454139376943</t>
+  </si>
+  <si>
+    <t>Docker从入门到放弃</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5e033e28f265da33ba5a9280</t>
+  </si>
+  <si>
+    <t>Python读写不同类型文件</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5dfb20506fb9a0160b63828c</t>
+  </si>
+  <si>
+    <t>移动端自动化框架Appium</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5df5ccb5e51d45581509a00e</t>
+  </si>
+  <si>
+    <t>Python测试框架--Allure</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5def3d64f265da33e67b3352</t>
+  </si>
+  <si>
+    <t>Python测试框架-pytest</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5de7cce5e51d45584221bfe9</t>
+  </si>
+  <si>
+    <t>Python操作主流数据库</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5dc418f5e51d4523615bf355</t>
+  </si>
+  <si>
+    <t>菜鸟的LeetCode之旅（难篇）</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5dc41813e51d4537f53504da</t>
+  </si>
+  <si>
+    <t>菜鸟的LeetCode之旅（中篇）</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5dc417a0e51d4569f258edd8</t>
+  </si>
+  <si>
+    <t>菜鸟的LeetCode之旅（易篇）</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5db80e65e51d456be3617fbf</t>
+  </si>
+  <si>
+    <t>Python数据结构和算法</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5dabfb25e51d45252b600e5f</t>
+  </si>
+  <si>
+    <t>Python高级编程</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5da5647b6fb9a04e19505ad9</t>
+  </si>
+  <si>
+    <t>Python编程进阶</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5da562f1518825044a12ff12</t>
+  </si>
+  <si>
+    <t>分布式代码管理工具Git</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d907a6c518825093a357eb7</t>
+  </si>
+  <si>
+    <t>关系型数据库MySQL</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d8962c06fb9a06afe12d5fc</t>
+  </si>
+  <si>
+    <t>《历次面试题》整理</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d86ef616fb9a06b03203a69</t>
+  </si>
+  <si>
+    <t>Linux Bash编程进阶</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d84bf025188257fed0aabdf</t>
+  </si>
+  <si>
+    <t>Linux Bash编程基础</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d7de3e3f265da03b1207c3d</t>
+  </si>
+  <si>
+    <t>Linux 系统基础知识</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d758baae51d453b5d4d8ded</t>
+  </si>
+  <si>
+    <t>Python 接口自动化测试</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d66a59c5188253e7a211c8d</t>
+  </si>
+  <si>
+    <t>Python Web自动化测试</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d592b88e51d456201486e37</t>
+  </si>
+  <si>
+    <t>Python测试框架-unittest</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d562695e51d453b1f37eb04</t>
+  </si>
+  <si>
+    <t>Python 基础学习</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d521f73f265da03d42f9929</t>
+  </si>
+  <si>
+    <t>【Python安全编程】一、Python安全编程基础</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d4fe8cd51882505764ec293</t>
+  </si>
+  <si>
+    <t>Django开发微信公众号</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5d49a8d6518825262a6bc600</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="Lucida Console"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,21 +569,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1184,455 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" ht="17.25" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" ht="17.25" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" ht="17.25" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" ht="17.25" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" ht="17.25" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" ht="17.25" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" ht="17.25" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" ht="17.25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://juejin.im/post/5e0d58ade51d454139376943" tooltip="https://juejin.im/post/5e0d58ade51d454139376943"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://juejin.im/post/5e033e28f265da33ba5a9280" tooltip="https://juejin.im/post/5e033e28f265da33ba5a9280"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://juejin.im/post/5dfb20506fb9a0160b63828c" tooltip="https://juejin.im/post/5dfb20506fb9a0160b63828c"/>
+    <hyperlink ref="B5" r:id="rId4" display="移动端自动化框架Appium" tooltip="https://juejin.im/post/5df5ccb5e51d45581509a00e"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://juejin.im/post/5df5ccb5e51d45581509a00e" tooltip="https://juejin.im/post/5df5ccb5e51d45581509a00e"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://juejin.im/post/5def3d64f265da33e67b3352" tooltip="https://juejin.im/post/5def3d64f265da33e67b3352"/>
+    <hyperlink ref="B6" r:id="rId5" display="Python测试框架--Allure" tooltip="https://juejin.im/post/5def3d64f265da33e67b3352"/>
+    <hyperlink ref="B7" r:id="rId6" display="Python测试框架-pytest" tooltip="https://juejin.im/post/5de7cce5e51d45584221bfe9"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://juejin.im/post/5de7cce5e51d45584221bfe9" tooltip="https://juejin.im/post/5de7cce5e51d45584221bfe9"/>
+    <hyperlink ref="B8" r:id="rId7" display="Python操作主流数据库" tooltip="https://juejin.im/post/5dc418f5e51d4523615bf355"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://juejin.im/post/5dc418f5e51d4523615bf355" tooltip="https://juejin.im/post/5dc418f5e51d4523615bf355"/>
+    <hyperlink ref="B9" r:id="rId8" display="菜鸟的LeetCode之旅（难篇）" tooltip="https://juejin.im/post/5dc41813e51d4537f53504da"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://juejin.im/post/5dc41813e51d4537f53504da" tooltip="https://juejin.im/post/5dc41813e51d4537f53504da"/>
+    <hyperlink ref="B10" r:id="rId9" display="菜鸟的LeetCode之旅（中篇）" tooltip="https://juejin.im/post/5dc417a0e51d4569f258edd8"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://juejin.im/post/5dc417a0e51d4569f258edd8" tooltip="https://juejin.im/post/5dc417a0e51d4569f258edd8"/>
+    <hyperlink ref="B11" r:id="rId10" display="菜鸟的LeetCode之旅（易篇）" tooltip="https://juejin.im/post/5db80e65e51d456be3617fbf"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://juejin.im/post/5db80e65e51d456be3617fbf" tooltip="https://juejin.im/post/5db80e65e51d456be3617fbf"/>
+    <hyperlink ref="B12" r:id="rId11" display="Python数据结构和算法" tooltip="https://juejin.im/post/5dabfb25e51d45252b600e5f"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://juejin.im/post/5dabfb25e51d45252b600e5f" tooltip="https://juejin.im/post/5dabfb25e51d45252b600e5f"/>
+    <hyperlink ref="B13" r:id="rId12" display="Python高级编程" tooltip="https://juejin.im/post/5da5647b6fb9a04e19505ad9"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://juejin.im/post/5da5647b6fb9a04e19505ad9" tooltip="https://juejin.im/post/5da5647b6fb9a04e19505ad9"/>
+    <hyperlink ref="B14" r:id="rId13" display="Python编程进阶" tooltip="https://juejin.im/post/5da562f1518825044a12ff12"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://juejin.im/post/5da562f1518825044a12ff12" tooltip="https://juejin.im/post/5da562f1518825044a12ff12"/>
+    <hyperlink ref="B15" r:id="rId14" display="分布式代码管理工具Git" tooltip="https://juejin.im/post/5d907a6c518825093a357eb7"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://juejin.im/post/5d907a6c518825093a357eb7" tooltip="https://juejin.im/post/5d907a6c518825093a357eb7"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://juejin.im/post/5d8962c06fb9a06afe12d5fc" tooltip="https://juejin.im/post/5d8962c06fb9a06afe12d5fc"/>
+    <hyperlink ref="B16" r:id="rId15" display="关系型数据库MySQL" tooltip="https://juejin.im/post/5d8962c06fb9a06afe12d5fc"/>
+    <hyperlink ref="B17" r:id="rId16" display="《历次面试题》整理" tooltip="https://juejin.im/post/5d86ef616fb9a06b03203a69"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://juejin.im/post/5d86ef616fb9a06b03203a69" tooltip="https://juejin.im/post/5d86ef616fb9a06b03203a69"/>
+    <hyperlink ref="B18" r:id="rId17" display="Linux Bash编程进阶" tooltip="https://juejin.im/post/5d84bf025188257fed0aabdf"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://juejin.im/post/5d84bf025188257fed0aabdf" tooltip="https://juejin.im/post/5d84bf025188257fed0aabdf"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://juejin.im/post/5d7de3e3f265da03b1207c3d" tooltip="https://juejin.im/post/5d7de3e3f265da03b1207c3d"/>
+    <hyperlink ref="B19" r:id="rId18" display="Linux Bash编程基础" tooltip="https://juejin.im/post/5d7de3e3f265da03b1207c3d"/>
+    <hyperlink ref="B20" r:id="rId19" display="Linux 系统基础知识" tooltip="https://juejin.im/post/5d758baae51d453b5d4d8ded"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://juejin.im/post/5d758baae51d453b5d4d8ded" tooltip="https://juejin.im/post/5d758baae51d453b5d4d8ded"/>
+    <hyperlink ref="B21" r:id="rId20" display="Python 接口自动化测试" tooltip="https://juejin.im/post/5d66a59c5188253e7a211c8d"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://juejin.im/post/5d66a59c5188253e7a211c8d" tooltip="https://juejin.im/post/5d66a59c5188253e7a211c8d"/>
+    <hyperlink ref="B22" r:id="rId21" display="Python Web自动化测试" tooltip="https://juejin.im/post/5d592b88e51d456201486e37"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://juejin.im/post/5d592b88e51d456201486e37" tooltip="https://juejin.im/post/5d592b88e51d456201486e37"/>
+    <hyperlink ref="B23" r:id="rId22" display="Python测试框架-unittest" tooltip="https://juejin.im/post/5d562695e51d453b1f37eb04"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://juejin.im/post/5d562695e51d453b1f37eb04" tooltip="https://juejin.im/post/5d562695e51d453b1f37eb04"/>
+    <hyperlink ref="B24" r:id="rId23" display="Python 基础学习" tooltip="https://juejin.im/post/5d521f73f265da03d42f9929"/>
+    <hyperlink ref="B25" r:id="rId24" display="【Python安全编程】一、Python安全编程基础" tooltip="https://juejin.im/post/5d4fe8cd51882505764ec293"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://juejin.im/post/5d521f73f265da03d42f9929" tooltip="https://juejin.im/post/5d521f73f265da03d42f9929"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://juejin.im/post/5d4fe8cd51882505764ec293" tooltip="https://juejin.im/post/5d4fe8cd51882505764ec293"/>
+    <hyperlink ref="B26" r:id="rId25" display="Django开发微信公众号" tooltip="https://juejin.im/post/5d49a8d6518825262a6bc600"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://juejin.im/post/5d49a8d6518825262a6bc600" tooltip="https://juejin.im/post/5d49a8d6518825262a6bc600"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>